--- a/data/Discovery_Warner_values.xlsx
+++ b/data/Discovery_Warner_values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matiasibarburu/Desktop/Python/eco395m-Final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{228ACC9B-77E0-424C-ADF5-6D1BC913BAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CD92EC-8922-5D46-88B3-7BCEEBE90581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -495,14 +495,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="200.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
